--- a/data/2023/fid/FID-ALT-AY-DE-16.xlsx
+++ b/data/2023/fid/FID-ALT-AY-DE-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="221">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -91,43 +91,190 @@
     <t>FL-Bibliotheken</t>
   </si>
   <si>
+    <t>1137448-2</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Amarna letters</t>
+  </si>
+  <si>
+    <t>KMT Communications</t>
+  </si>
+  <si>
+    <t>San Francisco, Calif.</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>6,21;FID-ALT-AY-DE-16</t>
+  </si>
+  <si>
+    <t>1.1991,He. - 4.2000 ; Volume 5 (summer 2015) -</t>
+  </si>
+  <si>
+    <t>DE-16</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>281410-9</t>
+  </si>
+  <si>
+    <t>Oriens antiqvvs</t>
+  </si>
+  <si>
+    <t>Istituti Editoriali e Poligrafici Internazionali;Centro per le Antichità e la Storia dell'Arte del Vicino Oriente</t>
+  </si>
+  <si>
+    <t>Pisa;Roma</t>
+  </si>
+  <si>
+    <t>0030-5189</t>
+  </si>
+  <si>
+    <t>890;930</t>
+  </si>
+  <si>
+    <t>FID-ALT-AY-DE-16;FID-ALT-DE-12;1</t>
+  </si>
+  <si>
+    <t>1.1962 - 29.1990,1/2 ; Series nova, 1 (2019)-</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>DE-12</t>
+  </si>
+  <si>
+    <t>2402717-0</t>
+  </si>
+  <si>
+    <t>Pražské egyptologické studie</t>
+  </si>
+  <si>
+    <t>Univ. Karlova</t>
+  </si>
+  <si>
+    <t>Praha</t>
+  </si>
+  <si>
+    <t>cze</t>
+  </si>
+  <si>
+    <t>1214-3189</t>
+  </si>
+  <si>
+    <t>FID-ALT-AY-DE-16</t>
+  </si>
+  <si>
+    <t>Suplementa</t>
+  </si>
+  <si>
+    <t>2003 - 2004</t>
+  </si>
+  <si>
     <t>2558986-6</t>
   </si>
   <si>
-    <t>print</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>Saqqara newsletter</t>
   </si>
   <si>
-    <t/>
+    <t>[Verlag nicht ermittelbar]</t>
   </si>
   <si>
     <t>Leiden</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
     <t>930</t>
   </si>
   <si>
-    <t>FID-ALT-AY-DE-16</t>
-  </si>
-  <si>
     <t>1.2003 -</t>
   </si>
   <si>
-    <t>DE-16</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>2841985-6</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>The Brill Dictionary of Ancient Greek</t>
+  </si>
+  <si>
+    <t>Brill</t>
+  </si>
+  <si>
+    <t>930;870;880</t>
+  </si>
+  <si>
+    <t>FID-ALT-DE-12;FID-ALT-KA-DE-16;FID-ALT-AY-DE-16</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 2015 -</t>
+  </si>
+  <si>
+    <t>http://dictionaries.brillonline.com/montanari;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=100901</t>
+  </si>
+  <si>
+    <t>2870450-2</t>
+  </si>
+  <si>
+    <t>The journal of Ancient Egyptian architecture</t>
+  </si>
+  <si>
+    <t>[Erscheinungsort nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>2472-999X</t>
+  </si>
+  <si>
+    <t>Volume 1 (July/December 2016)-</t>
+  </si>
+  <si>
+    <t>http://www.egyptian-architecture.com/;http://www.bibliothek.uni-regensburg.de/ezeit/?2870450</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>DE-12;DE-19;DE-20;DE-862;DE-863;DE-26;DE-29;DE-1102;DE-946;DE-90;DE-355;DE-898;DE-155;DE-384;DE-Aug4;DE-37;DE-473;DE-703;DE-739;DE-824;DE-573;DE-150;DE-634;DE-706;DE-523;DE-Re13</t>
+  </si>
+  <si>
+    <t>2875945-X</t>
+  </si>
+  <si>
+    <t>Nile</t>
+  </si>
+  <si>
+    <t>NILE Magazine</t>
+  </si>
+  <si>
+    <t>[Great Britain]</t>
+  </si>
+  <si>
+    <t>2206-0502</t>
+  </si>
+  <si>
+    <t>#1 (April/May 2016)-</t>
   </si>
   <si>
     <t>3100356-4</t>
@@ -151,18 +298,36 @@
     <t>No. 5 (2021) [?]-</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>DE-31</t>
   </si>
   <si>
+    <t>2882008-3</t>
+  </si>
+  <si>
+    <t>ld;la;d</t>
+  </si>
+  <si>
+    <t>Ausgrabungen der Deutschen Orient-Gesellschaft in Assur</t>
+  </si>
+  <si>
+    <t>Harrassowitz Verlag</t>
+  </si>
+  <si>
+    <t>Wiesbaden</t>
+  </si>
+  <si>
+    <t>ger</t>
+  </si>
+  <si>
+    <t>Inschriften</t>
+  </si>
+  <si>
+    <t>3 (1920) [?]-</t>
+  </si>
+  <si>
     <t>3115672-1</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>Interdisciplinary Egyptology</t>
   </si>
   <si>
@@ -178,156 +343,39 @@
     <t>https://journals.univie.ac.at/index.php/integ/;http://www.bibliothek.uni-regensburg.de/ezeit/?3115672</t>
   </si>
   <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>DE-12;DE-19;DE-862;DE-863;DE-20;DE-26;DE-1102;DE-29;DE-946;DE-90;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-703;DE-739;DE-573;DE-150;DE-824;DE-634;DE-706;DE-523</t>
-  </si>
-  <si>
-    <t>1137448-2</t>
-  </si>
-  <si>
-    <t>Amarna letters</t>
-  </si>
-  <si>
-    <t>KMT Communications</t>
-  </si>
-  <si>
-    <t>San Francisco, Calif.</t>
-  </si>
-  <si>
-    <t>890</t>
-  </si>
-  <si>
-    <t>6,21;FID-ALT-AY-DE-16</t>
-  </si>
-  <si>
-    <t>1.1991,He. - 4.2000 ; Volume 5 (summer 2015) -</t>
-  </si>
-  <si>
-    <t>281410-9</t>
-  </si>
-  <si>
-    <t>Oriens antiqvvs</t>
-  </si>
-  <si>
-    <t>Istituti Editoriali e Poligrafici Internazionali;Centro per le Antichità e la Storia dell'Arte del Vicino Oriente</t>
-  </si>
-  <si>
-    <t>Pisa;Roma</t>
-  </si>
-  <si>
-    <t>0030-5189</t>
-  </si>
-  <si>
-    <t>890;930</t>
-  </si>
-  <si>
-    <t>FID-ALT-AY-DE-16;FID-ALT-DE-12;1</t>
-  </si>
-  <si>
-    <t>1.1962 - 29.1990,1/2 ; Series nova, 1 (2019)-</t>
-  </si>
-  <si>
-    <t>DE-12</t>
-  </si>
-  <si>
-    <t>2870450-2</t>
-  </si>
-  <si>
-    <t>The journal of Ancient Egyptian architecture</t>
-  </si>
-  <si>
-    <t>[Verlag nicht ermittelbar]</t>
-  </si>
-  <si>
-    <t>[Erscheinungsort nicht ermittelbar]</t>
-  </si>
-  <si>
-    <t>2472-999X</t>
-  </si>
-  <si>
-    <t>Volume 1 (July/December 2016)-</t>
-  </si>
-  <si>
-    <t>http://www.egyptian-architecture.com/;http://www.bibliothek.uni-regensburg.de/ezeit/?2870450</t>
-  </si>
-  <si>
-    <t>DE-12;DE-19;DE-20;DE-862;DE-863;DE-26;DE-29;DE-1102;DE-946;DE-90;DE-355;DE-898;DE-155;DE-384;DE-Aug4;DE-37;DE-473;DE-703;DE-739;DE-824;DE-573;DE-150;DE-634;DE-706;DE-523</t>
-  </si>
-  <si>
-    <t>2875945-X</t>
-  </si>
-  <si>
-    <t>Nile</t>
-  </si>
-  <si>
-    <t>NILE Magazine</t>
-  </si>
-  <si>
-    <t>[Great Britain]</t>
-  </si>
-  <si>
-    <t>2206-0502</t>
-  </si>
-  <si>
-    <t>#1 (April/May 2016)-</t>
-  </si>
-  <si>
-    <t>2882008-3</t>
+    <t>DE-12;DE-19;DE-862;DE-863;DE-20;DE-26;DE-1102;DE-29;DE-946;DE-90;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-703;DE-739;DE-573;DE-150;DE-824;DE-634;DE-706;DE-523;DE-Re13</t>
+  </si>
+  <si>
+    <t>2899865-0</t>
+  </si>
+  <si>
+    <t>ro;rb;b</t>
+  </si>
+  <si>
+    <t>Aegyptiaca</t>
+  </si>
+  <si>
+    <t>Propylaeum</t>
+  </si>
+  <si>
+    <t>eng;ger;fre</t>
+  </si>
+  <si>
+    <t>2566-9419</t>
+  </si>
+  <si>
+    <t>1 (2017)-</t>
+  </si>
+  <si>
+    <t>http://journals.ub.uni-heidelberg.de/index.php/aegyp/index;http://www.bibliothek.uni-regensburg.de/ezeit/?2899865</t>
+  </si>
+  <si>
+    <t>2900338-6</t>
   </si>
   <si>
     <t>d</t>
   </si>
   <si>
-    <t>Ausgrabungen der Deutschen Orient-Gesellschaft in Assur</t>
-  </si>
-  <si>
-    <t>Harrassowitz Verlag</t>
-  </si>
-  <si>
-    <t>Wiesbaden</t>
-  </si>
-  <si>
-    <t>ger</t>
-  </si>
-  <si>
-    <t>Inschriften</t>
-  </si>
-  <si>
-    <t>3 (1920) [?]-</t>
-  </si>
-  <si>
-    <t>2899865-0</t>
-  </si>
-  <si>
-    <t>ro;rb;b</t>
-  </si>
-  <si>
-    <t>Aegyptiaca</t>
-  </si>
-  <si>
-    <t>Propylaeum</t>
-  </si>
-  <si>
-    <t>eng;ger;fre</t>
-  </si>
-  <si>
-    <t>2566-9419</t>
-  </si>
-  <si>
-    <t>1 (2017)-</t>
-  </si>
-  <si>
-    <t>http://journals.ub.uni-heidelberg.de/index.php/aegyp/index;http://www.bibliothek.uni-regensburg.de/ezeit/?2899865</t>
-  </si>
-  <si>
-    <t>2900338-6</t>
-  </si>
-  <si>
     <t>Bibliothèque d'étude</t>
   </si>
   <si>
@@ -364,10 +412,10 @@
     <t>No. 46 (2016/2017)-</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-4;DE-19;DE-20;DE-26;DE-F42;DE-352;DE-B4</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-4;DE-15;DE-19;DE-20;DE-26;DE-F42;DE-352;DE-B4</t>
   </si>
   <si>
     <t>2904586-1</t>
@@ -424,10 +472,70 @@
     <t>https://www.exorientelux.nl/phoenix/;http://www.bibliothek.uni-regensburg.de/ezeit/?2930030</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>DE-12;DE-19;DE-210;DE-M352;DE-20;DE-862;DE-863;DE-26;DE-1102;DE-29;DE-92;DE-946;DE-90;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-521;DE-703;DE-739;DE-573;DE-824;DE-150;DE-634;DE-706;DE-523</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>DE-12;DE-19;DE-210;DE-M352;DE-20;DE-862;DE-863;DE-26;DE-1102;DE-29;DE-92;DE-946;DE-90;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-521;DE-703;DE-739;DE-573;DE-824;DE-150;DE-634;DE-706;DE-523;DE-Re13</t>
+  </si>
+  <si>
+    <t>2941285-7</t>
+  </si>
+  <si>
+    <t>Oxford Scholarship Online</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>FID-ALT-KA-DE-16;FID-ALT-AY-DE-16</t>
+  </si>
+  <si>
+    <t>Classical studies collection</t>
+  </si>
+  <si>
+    <t>https://global.oup.com/academic/?lang=en&amp;cc=de;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=102589</t>
+  </si>
+  <si>
+    <t>2941295-X</t>
+  </si>
+  <si>
+    <t>Florida scholarship online</t>
+  </si>
+  <si>
+    <t>Oxford$nOxford University Press</t>
+  </si>
+  <si>
+    <t>FID-ALT-AY-DE-16;FID-ALT-DE-12;FID-ALT-KA-DE-16</t>
+  </si>
+  <si>
+    <t>Archaeology collection</t>
+  </si>
+  <si>
+    <t>http://florida.universitypressscholarship.com/browse?t=OSO:archaeology;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=102545</t>
+  </si>
+  <si>
+    <t>2941431-3</t>
+  </si>
+  <si>
+    <t>Torrossa E-Books Altertumswissenschaften</t>
+  </si>
+  <si>
+    <t>Casalini Libri</t>
+  </si>
+  <si>
+    <t>Fiesole</t>
+  </si>
+  <si>
+    <t>ita</t>
+  </si>
+  <si>
+    <t>FID-ALT-AY-DE-16;FID-ALT-DE-12</t>
+  </si>
+  <si>
+    <t>https://altertum.fid-lizenzen.de/angebote/nlproduct.2015-06-23.8384300392;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=102055</t>
   </si>
   <si>
     <t>2733393-0</t>
@@ -460,66 +568,6 @@
     <t>LF;LF</t>
   </si>
   <si>
-    <t>2941285-7</t>
-  </si>
-  <si>
-    <t>Oxford Scholarship Online</t>
-  </si>
-  <si>
-    <t>Oxford University Press</t>
-  </si>
-  <si>
-    <t>Oxford</t>
-  </si>
-  <si>
-    <t>FID-ALT-KA-DE-16;FID-ALT-AY-DE-16</t>
-  </si>
-  <si>
-    <t>Classical studies collection</t>
-  </si>
-  <si>
-    <t>https://global.oup.com/academic/?lang=en&amp;cc=de;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=102589</t>
-  </si>
-  <si>
-    <t>2941295-X</t>
-  </si>
-  <si>
-    <t>Florida scholarship online</t>
-  </si>
-  <si>
-    <t>Oxford$nOxford University Press</t>
-  </si>
-  <si>
-    <t>FID-ALT-AY-DE-16;FID-ALT-DE-12;FID-ALT-KA-DE-16</t>
-  </si>
-  <si>
-    <t>Archaeology collection</t>
-  </si>
-  <si>
-    <t>http://florida.universitypressscholarship.com/browse?t=OSO:archaeology;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=102545</t>
-  </si>
-  <si>
-    <t>2941431-3</t>
-  </si>
-  <si>
-    <t>Torrossa E-Books Altertumswissenschaften</t>
-  </si>
-  <si>
-    <t>Casalini Libri</t>
-  </si>
-  <si>
-    <t>Fiesole</t>
-  </si>
-  <si>
-    <t>ita</t>
-  </si>
-  <si>
-    <t>FID-ALT-AY-DE-16;FID-ALT-DE-12</t>
-  </si>
-  <si>
-    <t>https://altertum.fid-lizenzen.de/angebote/nlproduct.2015-06-23.8384300392;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=102055</t>
-  </si>
-  <si>
     <t>2945405-0</t>
   </si>
   <si>
@@ -529,9 +577,6 @@
     <t>Gregory of Nyssa Online</t>
   </si>
   <si>
-    <t>Brill</t>
-  </si>
-  <si>
     <t>grc;eng</t>
   </si>
   <si>
@@ -577,9 +622,6 @@
     <t>Archaeopress</t>
   </si>
   <si>
-    <t>FID-ALT-DE-12;FID-ALT-KA-DE-16;FID-ALT-AY-DE-16</t>
-  </si>
-  <si>
     <t>https://www.archaeopress.com;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=102761;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=104201</t>
   </si>
   <si>
@@ -634,7 +676,7 @@
     <t>https://egyptology-bg.org/journal/;http://www.bibliothek.uni-regensburg.de/ezeit/?2983897</t>
   </si>
   <si>
-    <t>DE-12;DE-19;DE-20;DE-862;DE-863;DE-26;DE-1102;DE-29;DE-946;DE-90;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-703;DE-739;DE-573;DE-150;DE-824;DE-634;DE-706;DE-523</t>
+    <t>DE-12;DE-19;DE-20;DE-862;DE-863;DE-26;DE-1102;DE-29;DE-946;DE-90;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-703;DE-739;DE-573;DE-150;DE-824;DE-634;DE-706;DE-523;DE-Re13</t>
   </si>
 </sst>
 </file>
@@ -966,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1072,69 +1114,69 @@
         <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>40</v>
@@ -1146,143 +1188,143 @@
         <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="V3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Y3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="S4" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="T4" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="U4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -1291,70 +1333,70 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R5" t="s">
         <v>63</v>
       </c>
       <c r="S5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1362,150 +1404,150 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
         <v>68</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>69</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" t="s">
         <v>70</v>
       </c>
-      <c r="L6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>71</v>
       </c>
-      <c r="S6" t="s">
-        <v>29</v>
-      </c>
       <c r="T6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
         <v>74</v>
-      </c>
-      <c r="E7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" t="s">
-        <v>76</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" t="s">
+        <v>76</v>
+      </c>
+      <c r="S7" t="s">
         <v>77</v>
       </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>78</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" t="s">
+        <v>32</v>
+      </c>
+      <c r="X7" t="s">
         <v>79</v>
-      </c>
-      <c r="T7" t="s">
-        <v>54</v>
-      </c>
-      <c r="U7" t="s">
-        <v>29</v>
-      </c>
-      <c r="V7" t="s">
-        <v>29</v>
-      </c>
-      <c r="W7" t="s">
-        <v>29</v>
-      </c>
-      <c r="X7" t="s">
-        <v>55</v>
       </c>
       <c r="Y7" t="s">
         <v>80</v>
@@ -1534,58 +1576,58 @@
         <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
         <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R8" t="s">
         <v>86</v>
       </c>
       <c r="S8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1593,7 +1635,7 @@
         <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>88</v>
@@ -1608,61 +1650,61 @@
         <v>91</v>
       </c>
       <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
         <v>92</v>
       </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" t="s">
-        <v>29</v>
-      </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="s">
         <v>93</v>
       </c>
-      <c r="M9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y9" t="s">
         <v>94</v>
-      </c>
-      <c r="S9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" t="s">
-        <v>29</v>
-      </c>
-      <c r="U9" t="s">
-        <v>29</v>
-      </c>
-      <c r="V9" t="s">
-        <v>29</v>
-      </c>
-      <c r="W9" t="s">
-        <v>29</v>
-      </c>
-      <c r="X9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1670,7 +1712,7 @@
         <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
         <v>96</v>
@@ -1682,64 +1724,64 @@
         <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
         <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S10" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="T10" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="U10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X10" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1747,10 +1789,10 @@
         <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>104</v>
@@ -1762,61 +1804,61 @@
         <v>106</v>
       </c>
       <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" t="s">
         <v>107</v>
       </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>29</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>108</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
+        <v>78</v>
+      </c>
+      <c r="U11" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" t="s">
+        <v>32</v>
+      </c>
+      <c r="W11" t="s">
+        <v>32</v>
+      </c>
+      <c r="X11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y11" t="s">
         <v>109</v>
-      </c>
-      <c r="T11" t="s">
-        <v>29</v>
-      </c>
-      <c r="U11" t="s">
-        <v>29</v>
-      </c>
-      <c r="V11" t="s">
-        <v>29</v>
-      </c>
-      <c r="W11" t="s">
-        <v>29</v>
-      </c>
-      <c r="X11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1824,76 +1866,76 @@
         <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q12" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="R12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S12" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="T12" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X12" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1901,241 +1943,241 @@
         <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="L13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="T13" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="U13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X13" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="L14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q14" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="R14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="S14" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="T14" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="U14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="V14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X14" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="Y14" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="S15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="T15" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X15" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>140</v>
@@ -2147,155 +2189,155 @@
         <v>142</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="K16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" t="s">
         <v>144</v>
       </c>
-      <c r="L16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16" t="s">
-        <v>29</v>
-      </c>
-      <c r="P16" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>29</v>
-      </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>145</v>
       </c>
-      <c r="S16" t="s">
-        <v>146</v>
-      </c>
       <c r="T16" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X16" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y16" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
         <v>148</v>
       </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
         <v>149</v>
       </c>
-      <c r="E17" t="s">
+      <c r="K17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" t="s">
         <v>150</v>
       </c>
-      <c r="F17" t="s">
+      <c r="S17" t="s">
         <v>151</v>
       </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="T17" t="s">
+        <v>78</v>
+      </c>
+      <c r="U17" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" t="s">
+        <v>32</v>
+      </c>
+      <c r="W17" t="s">
+        <v>32</v>
+      </c>
+      <c r="X17" t="s">
         <v>152</v>
       </c>
-      <c r="L17" t="s">
+      <c r="Y17" t="s">
         <v>153</v>
-      </c>
-      <c r="M17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" t="s">
-        <v>29</v>
-      </c>
-      <c r="P17" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>29</v>
-      </c>
-      <c r="R17" t="s">
-        <v>29</v>
-      </c>
-      <c r="S17" t="s">
-        <v>154</v>
-      </c>
-      <c r="T17" t="s">
-        <v>29</v>
-      </c>
-      <c r="U17" t="s">
-        <v>29</v>
-      </c>
-      <c r="V17" t="s">
-        <v>29</v>
-      </c>
-      <c r="W17" t="s">
-        <v>29</v>
-      </c>
-      <c r="X17" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" t="s">
         <v>155</v>
       </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>156</v>
-      </c>
-      <c r="E18" t="s">
-        <v>29</v>
       </c>
       <c r="F18" t="s">
         <v>157</v>
@@ -2304,10 +2346,10 @@
         <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J18" t="s">
         <v>32</v>
@@ -2319,43 +2361,43 @@
         <v>159</v>
       </c>
       <c r="M18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S18" t="s">
         <v>160</v>
       </c>
       <c r="T18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2363,7 +2405,7 @@
         <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -2372,529 +2414,683 @@
         <v>162</v>
       </c>
       <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
         <v>163</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" t="s">
         <v>164</v>
       </c>
-      <c r="G19" t="s">
+      <c r="L19" t="s">
         <v>165</v>
       </c>
-      <c r="H19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19" t="s">
         <v>166</v>
       </c>
-      <c r="L19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>29</v>
-      </c>
-      <c r="R19" t="s">
-        <v>29</v>
-      </c>
-      <c r="S19" t="s">
-        <v>167</v>
-      </c>
       <c r="T19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>168</v>
       </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>169</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>170</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>171</v>
       </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" t="s">
         <v>172</v>
       </c>
-      <c r="H20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20" t="s">
         <v>173</v>
       </c>
-      <c r="J20" t="s">
-        <v>174</v>
-      </c>
-      <c r="K20" t="s">
-        <v>175</v>
-      </c>
-      <c r="L20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" t="s">
-        <v>29</v>
-      </c>
-      <c r="O20" t="s">
-        <v>29</v>
-      </c>
-      <c r="P20" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>29</v>
-      </c>
-      <c r="R20" t="s">
-        <v>29</v>
-      </c>
-      <c r="S20" t="s">
-        <v>177</v>
-      </c>
       <c r="T20" t="s">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="U20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
         <v>179</v>
       </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="K21" t="s">
         <v>180</v>
       </c>
-      <c r="E21" t="s">
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" t="s">
         <v>181</v>
       </c>
-      <c r="F21" t="s">
+      <c r="S21" t="s">
         <v>182</v>
       </c>
-      <c r="G21" t="s">
+      <c r="T21" t="s">
         <v>183</v>
       </c>
-      <c r="H21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" t="s">
-        <v>29</v>
-      </c>
-      <c r="O21" t="s">
-        <v>29</v>
-      </c>
-      <c r="P21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>29</v>
-      </c>
-      <c r="R21" t="s">
-        <v>184</v>
-      </c>
-      <c r="S21" t="s">
-        <v>29</v>
-      </c>
-      <c r="T21" t="s">
-        <v>29</v>
-      </c>
       <c r="U21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="X21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
         <v>185</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>186</v>
       </c>
       <c r="E22" t="s">
-        <v>186</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="H22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="J22" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P22" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="Q22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S22" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T22" t="s">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="U22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E23" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F23" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="H23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J23" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="L23" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="M23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R23" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="S23" t="s">
-        <v>194</v>
+        <v>32</v>
       </c>
       <c r="T23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U23" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="V23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E24" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F24" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="G24" t="s">
         <v>31</v>
       </c>
       <c r="H24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="K24" t="s">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="L24" t="s">
-        <v>198</v>
+        <v>32</v>
       </c>
       <c r="M24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S24" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="T24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E25" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G25" t="s">
         <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K25" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s">
+        <v>159</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" t="s">
+        <v>32</v>
+      </c>
+      <c r="S25" t="s">
+        <v>208</v>
+      </c>
+      <c r="T25" t="s">
+        <v>32</v>
+      </c>
+      <c r="U25" t="s">
+        <v>32</v>
+      </c>
+      <c r="V25" t="s">
+        <v>32</v>
+      </c>
+      <c r="W25" t="s">
+        <v>32</v>
+      </c>
+      <c r="X25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F26" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" t="s">
+        <v>212</v>
+      </c>
+      <c r="M26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" t="s">
+        <v>213</v>
+      </c>
+      <c r="T26" t="s">
+        <v>32</v>
+      </c>
+      <c r="U26" t="s">
+        <v>32</v>
+      </c>
+      <c r="V26" t="s">
+        <v>32</v>
+      </c>
+      <c r="W26" t="s">
+        <v>32</v>
+      </c>
+      <c r="X26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" t="s">
         <v>33</v>
       </c>
-      <c r="L25" t="s">
-        <v>29</v>
-      </c>
-      <c r="M25" t="s">
-        <v>29</v>
-      </c>
-      <c r="N25" t="s">
-        <v>29</v>
-      </c>
-      <c r="O25" t="s">
-        <v>29</v>
-      </c>
-      <c r="P25" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>29</v>
-      </c>
-      <c r="R25" t="s">
-        <v>204</v>
-      </c>
-      <c r="S25" t="s">
-        <v>205</v>
-      </c>
-      <c r="T25" t="s">
-        <v>54</v>
-      </c>
-      <c r="U25" t="s">
-        <v>29</v>
-      </c>
-      <c r="V25" t="s">
-        <v>29</v>
-      </c>
-      <c r="W25" t="s">
-        <v>29</v>
-      </c>
-      <c r="X25" t="s">
+      <c r="K27" t="s">
         <v>55</v>
       </c>
-      <c r="Y25" t="s">
-        <v>206</v>
+      <c r="L27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>32</v>
+      </c>
+      <c r="R27" t="s">
+        <v>218</v>
+      </c>
+      <c r="S27" t="s">
+        <v>219</v>
+      </c>
+      <c r="T27" t="s">
+        <v>78</v>
+      </c>
+      <c r="U27" t="s">
+        <v>32</v>
+      </c>
+      <c r="V27" t="s">
+        <v>32</v>
+      </c>
+      <c r="W27" t="s">
+        <v>32</v>
+      </c>
+      <c r="X27" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/data/2023/fid/FID-ALT-AY-DE-16.xlsx
+++ b/data/2023/fid/FID-ALT-AY-DE-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="222">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -157,145 +157,148 @@
     <t>1.1962 - 29.1990,1/2 ; Series nova, 1 (2019)-</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-12</t>
+  </si>
+  <si>
+    <t>2402717-0</t>
+  </si>
+  <si>
+    <t>Pražské egyptologické studie</t>
+  </si>
+  <si>
+    <t>Univ. Karlova</t>
+  </si>
+  <si>
+    <t>Praha</t>
+  </si>
+  <si>
+    <t>cze</t>
+  </si>
+  <si>
+    <t>1214-3189</t>
+  </si>
+  <si>
+    <t>FID-ALT-AY-DE-16</t>
+  </si>
+  <si>
+    <t>Suplementa</t>
+  </si>
+  <si>
+    <t>2003 - 2004</t>
+  </si>
+  <si>
+    <t>2558986-6</t>
+  </si>
+  <si>
+    <t>Saqqara newsletter</t>
+  </si>
+  <si>
+    <t>[Verlag nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>Leiden</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>1.2003 -</t>
+  </si>
+  <si>
+    <t>2841985-6</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>The Brill Dictionary of Ancient Greek</t>
+  </si>
+  <si>
+    <t>Brill</t>
+  </si>
+  <si>
+    <t>930;870;880</t>
+  </si>
+  <si>
+    <t>FID-ALT-DE-12;FID-ALT-KA-DE-16;FID-ALT-AY-DE-16</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 2015 -</t>
+  </si>
+  <si>
+    <t>http://dictionaries.brillonline.com/montanari;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=100901</t>
+  </si>
+  <si>
+    <t>2870450-2</t>
+  </si>
+  <si>
+    <t>The journal of Ancient Egyptian architecture</t>
+  </si>
+  <si>
+    <t>[Erscheinungsort nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>2472-999X</t>
+  </si>
+  <si>
+    <t>Volume 1 (July/December 2016)-</t>
+  </si>
+  <si>
+    <t>http://www.egyptian-architecture.com/;http://www.bibliothek.uni-regensburg.de/ezeit/?2870450</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>DE-12;DE-19;DE-20;DE-862;DE-863;DE-26;DE-29;DE-1102;DE-946;DE-90;DE-355;DE-898;DE-155;DE-384;DE-Aug4;DE-37;DE-473;DE-703;DE-739;DE-824;DE-573;DE-150;DE-634;DE-706;DE-523;DE-Re13</t>
+  </si>
+  <si>
+    <t>2875945-X</t>
+  </si>
+  <si>
+    <t>Nile</t>
+  </si>
+  <si>
+    <t>NILE Magazine</t>
+  </si>
+  <si>
+    <t>[Great Britain]</t>
+  </si>
+  <si>
+    <t>2206-0502</t>
+  </si>
+  <si>
+    <t>#1 (April/May 2016)-</t>
+  </si>
+  <si>
+    <t>3100356-4</t>
+  </si>
+  <si>
+    <t>rb;b</t>
+  </si>
+  <si>
+    <t>CIPEG journal</t>
+  </si>
+  <si>
+    <t>Propylaeum, Heidelberg University Library</t>
+  </si>
+  <si>
+    <t>Heidelberg</t>
+  </si>
+  <si>
+    <t>930;060</t>
+  </si>
+  <si>
+    <t>No. 5 (2021) [?]-</t>
+  </si>
+  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>DE-12</t>
-  </si>
-  <si>
-    <t>2402717-0</t>
-  </si>
-  <si>
-    <t>Pražské egyptologické studie</t>
-  </si>
-  <si>
-    <t>Univ. Karlova</t>
-  </si>
-  <si>
-    <t>Praha</t>
-  </si>
-  <si>
-    <t>cze</t>
-  </si>
-  <si>
-    <t>1214-3189</t>
-  </si>
-  <si>
-    <t>FID-ALT-AY-DE-16</t>
-  </si>
-  <si>
-    <t>Suplementa</t>
-  </si>
-  <si>
-    <t>2003 - 2004</t>
-  </si>
-  <si>
-    <t>2558986-6</t>
-  </si>
-  <si>
-    <t>Saqqara newsletter</t>
-  </si>
-  <si>
-    <t>[Verlag nicht ermittelbar]</t>
-  </si>
-  <si>
-    <t>Leiden</t>
-  </si>
-  <si>
-    <t>930</t>
-  </si>
-  <si>
-    <t>1.2003 -</t>
-  </si>
-  <si>
-    <t>2841985-6</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>The Brill Dictionary of Ancient Greek</t>
-  </si>
-  <si>
-    <t>Brill</t>
-  </si>
-  <si>
-    <t>930;870;880</t>
-  </si>
-  <si>
-    <t>FID-ALT-DE-12;FID-ALT-KA-DE-16;FID-ALT-AY-DE-16</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 2015 -</t>
-  </si>
-  <si>
-    <t>http://dictionaries.brillonline.com/montanari;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=100901</t>
-  </si>
-  <si>
-    <t>2870450-2</t>
-  </si>
-  <si>
-    <t>The journal of Ancient Egyptian architecture</t>
-  </si>
-  <si>
-    <t>[Erscheinungsort nicht ermittelbar]</t>
-  </si>
-  <si>
-    <t>2472-999X</t>
-  </si>
-  <si>
-    <t>Volume 1 (July/December 2016)-</t>
-  </si>
-  <si>
-    <t>http://www.egyptian-architecture.com/;http://www.bibliothek.uni-regensburg.de/ezeit/?2870450</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>DE-12;DE-19;DE-20;DE-862;DE-863;DE-26;DE-29;DE-1102;DE-946;DE-90;DE-355;DE-898;DE-155;DE-384;DE-Aug4;DE-37;DE-473;DE-703;DE-739;DE-824;DE-573;DE-150;DE-634;DE-706;DE-523;DE-Re13</t>
-  </si>
-  <si>
-    <t>2875945-X</t>
-  </si>
-  <si>
-    <t>Nile</t>
-  </si>
-  <si>
-    <t>NILE Magazine</t>
-  </si>
-  <si>
-    <t>[Great Britain]</t>
-  </si>
-  <si>
-    <t>2206-0502</t>
-  </si>
-  <si>
-    <t>#1 (April/May 2016)-</t>
-  </si>
-  <si>
-    <t>3100356-4</t>
-  </si>
-  <si>
-    <t>rb;b</t>
-  </si>
-  <si>
-    <t>CIPEG journal</t>
-  </si>
-  <si>
-    <t>Propylaeum, Heidelberg University Library</t>
-  </si>
-  <si>
-    <t>Heidelberg</t>
-  </si>
-  <si>
-    <t>930;060</t>
-  </si>
-  <si>
-    <t>No. 5 (2021) [?]-</t>
   </si>
   <si>
     <t>DE-31</t>
@@ -1701,33 +1704,33 @@
         <v>32</v>
       </c>
       <c r="X9" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H10" t="s">
         <v>32</v>
@@ -1742,7 +1745,7 @@
         <v>55</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s">
         <v>32</v>
@@ -1760,7 +1763,7 @@
         <v>32</v>
       </c>
       <c r="R10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S10" t="s">
         <v>32</v>
@@ -1786,7 +1789,7 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -1795,13 +1798,13 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
@@ -1837,10 +1840,10 @@
         <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="T11" t="s">
         <v>78</v>
@@ -1858,36 +1861,36 @@
         <v>79</v>
       </c>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F12" t="s">
         <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H12" t="s">
         <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
         <v>62</v>
@@ -1914,10 +1917,10 @@
         <v>32</v>
       </c>
       <c r="R12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T12" t="s">
         <v>78</v>
@@ -1940,25 +1943,25 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H13" t="s">
         <v>32</v>
@@ -1991,10 +1994,10 @@
         <v>32</v>
       </c>
       <c r="R13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="S13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T13" t="s">
         <v>32</v>
@@ -2017,7 +2020,7 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -2026,10 +2029,10 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
         <v>61</v>
@@ -2041,7 +2044,7 @@
         <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
         <v>33</v>
@@ -2065,10 +2068,10 @@
         <v>32</v>
       </c>
       <c r="Q14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S14" t="s">
         <v>32</v>
@@ -2086,15 +2089,15 @@
         <v>32</v>
       </c>
       <c r="X14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -2106,7 +2109,7 @@
         <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F15" t="s">
         <v>91</v>
@@ -2118,7 +2121,7 @@
         <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
         <v>62</v>
@@ -2145,10 +2148,10 @@
         <v>32</v>
       </c>
       <c r="R15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="S15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="T15" t="s">
         <v>78</v>
@@ -2171,7 +2174,7 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
@@ -2180,16 +2183,16 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H16" t="s">
         <v>32</v>
@@ -2222,10 +2225,10 @@
         <v>32</v>
       </c>
       <c r="R16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T16" t="s">
         <v>78</v>
@@ -2248,7 +2251,7 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -2257,16 +2260,16 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F17" t="s">
         <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H17" t="s">
         <v>32</v>
@@ -2275,7 +2278,7 @@
         <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K17" t="s">
         <v>55</v>
@@ -2299,10 +2302,10 @@
         <v>32</v>
       </c>
       <c r="R17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="T17" t="s">
         <v>78</v>
@@ -2317,30 +2320,30 @@
         <v>32</v>
       </c>
       <c r="X17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
@@ -2355,10 +2358,10 @@
         <v>32</v>
       </c>
       <c r="K18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M18" t="s">
         <v>32</v>
@@ -2379,7 +2382,7 @@
         <v>32</v>
       </c>
       <c r="S18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T18" t="s">
         <v>32</v>
@@ -2402,7 +2405,7 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
         <v>65</v>
@@ -2411,13 +2414,13 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E19" t="s">
         <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G19" t="s">
         <v>31</v>
@@ -2432,10 +2435,10 @@
         <v>62</v>
       </c>
       <c r="K19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M19" t="s">
         <v>32</v>
@@ -2456,7 +2459,7 @@
         <v>32</v>
       </c>
       <c r="S19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="T19" t="s">
         <v>32</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
@@ -2488,16 +2491,16 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H20" t="s">
         <v>32</v>
@@ -2509,7 +2512,7 @@
         <v>62</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L20" t="s">
         <v>32</v>
@@ -2533,7 +2536,7 @@
         <v>32</v>
       </c>
       <c r="S20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T20" t="s">
         <v>32</v>
@@ -2556,22 +2559,22 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G21" t="s">
         <v>32</v>
@@ -2583,10 +2586,10 @@
         <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s">
         <v>32</v>
@@ -2607,13 +2610,13 @@
         <v>32</v>
       </c>
       <c r="R21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U21" t="s">
         <v>32</v>
@@ -2633,16 +2636,16 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E22" t="s">
         <v>67</v>
@@ -2651,19 +2654,19 @@
         <v>61</v>
       </c>
       <c r="G22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H22" t="s">
         <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s">
         <v>32</v>
@@ -2678,7 +2681,7 @@
         <v>32</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q22" t="s">
         <v>32</v>
@@ -2687,10 +2690,10 @@
         <v>32</v>
       </c>
       <c r="S22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U22" t="s">
         <v>32</v>
@@ -2710,7 +2713,7 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -2719,16 +2722,16 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
@@ -2761,7 +2764,7 @@
         <v>32</v>
       </c>
       <c r="R23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S23" t="s">
         <v>32</v>
@@ -2787,7 +2790,7 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s">
         <v>65</v>
@@ -2796,13 +2799,13 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G24" t="s">
         <v>31</v>
@@ -2841,7 +2844,7 @@
         <v>32</v>
       </c>
       <c r="S24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="T24" t="s">
         <v>32</v>
@@ -2864,7 +2867,7 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s">
         <v>65</v>
@@ -2873,13 +2876,13 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
         <v>31</v>
@@ -2894,10 +2897,10 @@
         <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M25" t="s">
         <v>32</v>
@@ -2918,7 +2921,7 @@
         <v>32</v>
       </c>
       <c r="S25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T25" t="s">
         <v>32</v>
@@ -2941,7 +2944,7 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B26" t="s">
         <v>65</v>
@@ -2950,13 +2953,13 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -2974,7 +2977,7 @@
         <v>69</v>
       </c>
       <c r="L26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M26" t="s">
         <v>32</v>
@@ -2995,7 +2998,7 @@
         <v>32</v>
       </c>
       <c r="S26" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T26" t="s">
         <v>32</v>
@@ -3018,7 +3021,7 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B27" t="s">
         <v>65</v>
@@ -3027,13 +3030,13 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -3069,10 +3072,10 @@
         <v>32</v>
       </c>
       <c r="R27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="T27" t="s">
         <v>78</v>
@@ -3090,7 +3093,7 @@
         <v>79</v>
       </c>
       <c r="Y27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
